--- a/Results/quality_metrics_compounds.xlsx
+++ b/Results/quality_metrics_compounds.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,119 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aureme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C2" t="n">
+        <v>491</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3915</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2387596899224806</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03784713688867043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06533729316928298</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9685521748008985</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>merlin_blast</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>164</v>
+      </c>
+      <c r="C3" t="n">
+        <v>218</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3910</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4293193717277487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04025527736867943</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07360861759425494</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>carveme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>411</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1172</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3654</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2596336070751737</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1011070110701107</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1455382436260623</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9314771590530176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kbase</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3868</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3717472118959108</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04916420845624386</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08684324793747285</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9559859154929577</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results/quality_metrics_compounds.xlsx
+++ b/Results/quality_metrics_compounds.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -588,6 +588,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Results/quality_metrics_compounds.xlsx
+++ b/Results/quality_metrics_compounds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,34 @@
         <v>0.9559859154929577</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>merlin_bit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>720</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3506</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1703738760056791</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1766004415011038</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1734312898952186</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9305622528691291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
